--- a/data/persons.xlsx
+++ b/data/persons.xlsx
@@ -317,7 +317,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="23.74" customWidth="1" style="6" min="1" max="1"/>
     <col width="84.48999999999999" customWidth="1" style="6" min="2" max="2"/>
@@ -340,7 +340,7 @@
       <c r="D1" s="6" t="n">
         <v>6016855180</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1" s="6" t="n">
         <v>6959852164</v>
       </c>
     </row>
@@ -357,7 +357,7 @@
       </c>
       <c r="C2" s="6" t="inlineStr">
         <is>
-          <t>gdfdgf gfgdf gfg</t>
+          <t>cd sd dsfsd</t>
         </is>
       </c>
       <c r="D2" s="6" t="inlineStr">
@@ -365,7 +365,7 @@
           <t>dgdsg gs dgds</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>fsd fds fdsf</t>
         </is>
